--- a/single_digit/Results/L2vsD2_CNN_GL_30_training.xlsx
+++ b/single_digit/Results/L2vsD2_CNN_GL_30_training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60E19D-B60F-4BD4-B9D0-D8E4984CAE79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C405E2-ABE2-4775-AC75-C8CC16B99236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>training_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,29 +186,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$J$7</c:f>
+              <c:f>CNN!$F$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
@@ -220,29 +210,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_MV!$B$28:$H$28</c:f>
+              <c:f>GL_MV!$D$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.48710000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.23879999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48710000000000003</c:v>
+                  <c:v>0.21889999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23879999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21889999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.24479999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -272,29 +256,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$J$7</c:f>
+              <c:f>CNN!$F$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
@@ -302,29 +280,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_adaptive!$B$28:$H$28</c:f>
+              <c:f>GL_adaptive!$D$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.37119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.27190000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37119999999999997</c:v>
+                  <c:v>0.2072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27190000000000003</c:v>
+                  <c:v>0.26300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.2384</c:v>
                 </c:pt>
               </c:numCache>
@@ -410,30 +382,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CNN!$D$8:$J$8</c:f>
+              <c:f>CNN!$F$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36149999999999999</c:v>
+                  <c:v>0.28234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36149999999999999</c:v>
+                  <c:v>0.28234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36149999999999999</c:v>
+                  <c:v>0.28234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36149999999999999</c:v>
+                  <c:v>0.28234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.36149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36149999999999999</c:v>
+                  <c:v>0.28234999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,53 +770,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$H$7</c:f>
+              <c:f>CNN!$F$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_MV!$B$13:$H$13</c:f>
+              <c:f>GL_MV!$D$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.45000020000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.11333341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45000020000000002</c:v>
+                  <c:v>6.9999969999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11333341</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9999969999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.3333300000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -880,53 +840,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$H$7</c:f>
+              <c:f>CNN!$F$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_adaptive!$B$13:$H$13</c:f>
+              <c:f>GL_adaptive!$D$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.6666639999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16999997</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6666639999999994E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1012,30 +966,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CNN!$D$9:$J$9</c:f>
+              <c:f>CNN!$F$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.27999987000000004</c:v>
+                  <c:v>1.6666650000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27999987000000004</c:v>
+                  <c:v>1.6666650000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27999987000000004</c:v>
+                  <c:v>1.6666650000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27999987000000004</c:v>
+                  <c:v>1.6666650000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27999987000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27999987000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27999987000000004</c:v>
+                  <c:v>1.6666650000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,17 +2823,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D86EA0-3C88-40C3-A1C5-042D836277E7}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I14:I15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2895,45 +2846,48 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.23333300000000001</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.35</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.29199999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.35199999999999998</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.34</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.317</v>
+        <v>0.246</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2959,122 +2913,193 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.33100000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="E8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="F8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="G8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="H8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="I8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="J8">
-        <v>0.36149999999999999</v>
+        <v>0.28234999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>0.466667</v>
+        <v>3.3333300000000003E-2</v>
       </c>
       <c r="B9">
-        <v>0.495</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
       <c r="E9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
       <c r="F9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
       <c r="G9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
       <c r="H9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
       <c r="I9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
       <c r="J9">
-        <v>0.27999987000000004</v>
+        <v>1.6666650000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>0.26666699999999999</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.42399999999999999</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.379</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>0.23333300000000001</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.33500000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <f>AVERAGE(A3:A12)</f>
-        <v>0.20666670000000004</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <f>STDEV(A3:A12)</f>
-        <v>0.10749685955831451</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <f>STDEV(B3:B12)</f>
-        <v>5.8843011479699295E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f>AVERAGE(A3:A22)</f>
+        <v>1.6666650000000001E-3</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B3:B22)</f>
+        <v>0.28234999999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>STDEV(A3:A22)</f>
+        <v>7.453552471439375E-3</v>
+      </c>
+      <c r="B24">
+        <f>STDEV(B3:B22)</f>
+        <v>1.2766217755838001E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3086,7 +3111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45602E2-DFDB-4DC2-9A73-7D0DAA27F788}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3637,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7B3FA-A786-498B-86FF-4C69BB3470EF}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
